--- a/youjiDatabase/数据库结构.xlsx
+++ b/youjiDatabase/数据库结构.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14BA9E7-2EE7-49E0-B9FC-0AB8232E536A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FAEE00-FDE2-4B0A-B2A7-8B49159B47B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t>表名user(用户表)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -329,6 +329,17 @@
   </si>
   <si>
     <t>分区内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分区表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_time</t>
+  </si>
+  <si>
+    <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -865,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1364,6 +1375,17 @@
       </c>
       <c r="E41" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
